--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$4</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -95,12 +98,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,9 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,19 +424,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -481,7 +491,43 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -98,7 +98,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +111,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,14 +126,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -411,7 +434,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="E11" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,110 +447,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>44492</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>44492</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>45228</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
